--- a/cmip6/models/miroc-es2l/cmip6_miroc_miroc-es2l_land.xlsx
+++ b/cmip6/models/miroc-es2l/cmip6_miroc_miroc-es2l_land.xlsx
@@ -48,7 +48,7 @@
     <t>MIROC-ES2L</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>

--- a/cmip6/models/miroc-es2l/cmip6_miroc_miroc-es2l_land.xlsx
+++ b/cmip6/models/miroc-es2l/cmip6_miroc_miroc-es2l_land.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11209"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomohiro/OneDrive/SYNC_MAC/res/projects/CMIP6/esdoc/190206_井上さん依頼/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_8D108F7435B4AF258677CA5E89A9550DFD898BEA" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B69AF3E7-DA2C-F342-BCFB-2B0242C380B7}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="44040" windowHeight="26860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
     <sheet name="Parties &amp; Citations" sheetId="2" r:id="rId2"/>
     <sheet name="1. Key Properties" sheetId="3" r:id="rId3"/>
-    <sheet name="2. Grid" sheetId="4" r:id="rId4"/>
-    <sheet name="3. Soil" sheetId="5" r:id="rId5"/>
-    <sheet name="4. Snow" sheetId="6" r:id="rId6"/>
-    <sheet name="5. Vegetation" sheetId="7" r:id="rId7"/>
-    <sheet name="6. Energy Balance" sheetId="8" r:id="rId8"/>
+    <sheet name="2. Grid" sheetId="13" r:id="rId4"/>
+    <sheet name="3. Soil" sheetId="14" r:id="rId5"/>
+    <sheet name="4. Snow" sheetId="15" r:id="rId6"/>
+    <sheet name="5. Vegetation" sheetId="16" r:id="rId7"/>
+    <sheet name="6. Energy Balance" sheetId="17" r:id="rId8"/>
     <sheet name="7. Carbon Cycle" sheetId="9" r:id="rId9"/>
     <sheet name="8. Nitrogen Cycle" sheetId="10" r:id="rId10"/>
     <sheet name="9. River Routing" sheetId="11" r:id="rId11"/>
     <sheet name="10. Lakes" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="938">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1398,9 +1404,6 @@
     <t>Closed shrubland</t>
   </si>
   <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
     <t>Grassland</t>
   </si>
   <si>
@@ -2527,17 +2530,405 @@
   </si>
   <si>
     <t>cmip6.land.lakes.wetlands.description</t>
+  </si>
+  <si>
+    <t>HAJIMA-TOMOHIRO</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ITO-AKIHIKO</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>YAMAZAKI-DAI</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>TAKATA-KUMIKO</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>YOSHIMURA-KEI</t>
+  </si>
+  <si>
+    <t>NITTA-TOMOKO</t>
+  </si>
+  <si>
+    <t>OISHI-RYOUTA</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Contributor</t>
+  </si>
+  <si>
+    <t>Takata_2003</t>
+  </si>
+  <si>
+    <t>Nitta_2014</t>
+  </si>
+  <si>
+    <t>Watanabe_1994</t>
+  </si>
+  <si>
+    <t>Watanabe_1995</t>
+  </si>
+  <si>
+    <t>Oki_1998</t>
+  </si>
+  <si>
+    <t>Ngo_Duc_2007</t>
+  </si>
+  <si>
+    <t>Yamazaki_2009</t>
+  </si>
+  <si>
+    <t>Nitta_2017</t>
+  </si>
+  <si>
+    <t>Watanabe_2010</t>
+  </si>
+  <si>
+    <t>Watanabe_2011</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Hajima_in.prep</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Ito_Inatomi_2012, Ito_2016, Ito_Oikawa_2002</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Ito_Inatomi_2012, Ito_2016</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>VISIT-e (Biogeochemistry) &amp; MATSIRO6 (Physics and biophysics)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>biogeochemistry, carbon cycle, nitrogen cycle, dry-matter-reproduction, Monsi-Saeki model, land-use change, land surface model, big leaf model, multi-layer snow scheme, TOPMODEL-based approach</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Land biogeochemistry: carbon cycle, nitrogen cycle, land-use change impact on biogeochemistry, agricultural treatment (harvesting, fertilizer, grazing pressure), N leaching into river-ocean, dynamics of leaf area index, geographically static vegetation distribution.
+Land physics and biophysics: surface energy balance, radiative transfer in canopy, stomatal resistance, canopy interception, snow hydrology, prognostic snow albedo, runoff generation, soil hydrology and soil temperature.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dust, mineral in Dust (iron), and BC</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>implicit</t>
+  </si>
+  <si>
+    <t>Vegetation category is sub-divided into Primary / Secondary / urban / crop / pasture for Biogeochemistry, and non-agriculture/agriculture for land physics</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>For biogeochemistry, grids are sub-divided into 5 types of tiles: primary vegetation, secondary vegetation, urban, crop, and pasture. Crop and pasture tiles furtherly have sub-categories (normal/N-fixing crop, and pasture/rangeland, respectively).
+For physics, each land grid has three tiles: potential vegetation, cropland, and lake. The potential vegetation and cropland tiles are divided into two areas with and without snow cover. The lake is also divided into ice-covered and open water areas. The land surface fluxes are calculated in each area and averaged, weighted by their fractions. The land/sea fraction is considered.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>For biogeochemistry, gross transition between 5 LUC categories (see below) is considered; for physics, net transition between potential vegetation cover and cropland is considered.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Energy is conserved globally at land surface.</t>
+  </si>
+  <si>
+    <t>Water is conserved globally except for land ice grids.</t>
+  </si>
+  <si>
+    <t>Carbon is conserved globally except for land ice grids.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Variable atmosphere time step and 3600 seconds, and 1 day are used for flux calculation, land physics integration, and land biogeochemistry, respectively</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>abe2fa1221de</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>C and FORTRAN</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Land biogeochemistry, GPP, LAI, and LUC flux are tuned. Land physics component was not used for tuning.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Atmosphere horizontal grid is used.</t>
+  </si>
+  <si>
+    <t>Soil has six layers with a thickness of 0.05, 0.2, 0.75, 1, 2, and 10 m.</t>
+  </si>
+  <si>
+    <t>Heat and water is coupled through soil freeze and thaw processes.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ISLSCP Initiative I (ERBE)</t>
+  </si>
+  <si>
+    <t>N/A. Water table is diagnosed in the model.</t>
+  </si>
+  <si>
+    <t>N/A. Soil depth is constant.</t>
+  </si>
+  <si>
+    <t>The unfrozen soil moisture is predicted by the Richards equation with hydraulic properies based on Clapp and Hornberger (1979).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil has six layers with a thickness of 0.05, 0.2, 0.75, 1, 2, and 10 m. </t>
+  </si>
+  <si>
+    <t>No connectivity</t>
+  </si>
+  <si>
+    <t>Thermo dynamics</t>
+  </si>
+  <si>
+    <t>There is no specific treatment for permafrost. But near-surface permafrost is represented by soil freezing processes.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Runoff is calculated following a simplified TOPMODEL.</t>
+  </si>
+  <si>
+    <t>The soil temperature is predicted by a heat conduction equation with a zero heat flux at the bottom. The soil moisture freeze and thaw processes are included.</t>
+  </si>
+  <si>
+    <t>Tiling corresponded to potential vegetation /cropland tiling.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The snow parameterization includes snow accumulation, snowmelt, and refreeze of snowmelt and rainfall with up to three snow layers. Snow temperature is calculated by a heat conduction equation. SSNOWD (Liston, 2004) snow cover fraction parameterization, which assumes a subgrid snow distribution function, is implemented.</t>
+  </si>
+  <si>
+    <t>Tiling corresponded to potential vegetation/cropland tiling.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Snow mass, Snow temperature, Snow albedo, Dust density in snow, Accumulated snow mass in the absence of any melt, Accumulated snow water-equivalent melt depth</t>
+  </si>
+  <si>
+    <t>Open shrubland</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Open shrubland</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Stomatal resistance is calculated using a photosynthetic scheme after SiB2 (Selleres et al., 1996).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The surface energy balance is calculated by linearization of surface temperature equations for canopy and surface. The canopy albedo and transmissivity are calculated using simplified radiative transfer in canopy by Watanabe and Ohtani (1995). The bulk coefficients are estimated based on Watanabe (1994). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The energy balance is calculated for snow-covered and snow-free surface of each tile. </t>
+  </si>
+  <si>
+    <t>2 soil surface and 2 canopy surface</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Alpha for soil evaporation, Beta for transpiration</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Interception evaporation, sublimation from snow and frozen soil moisture, and dew.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Atmosphere horizontal grid is used for the land models.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Soil has six layers with a thickness of 0.05, 0.2, 0.75, 1, 2, and 10 m for water and energy transfer.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The soil parameterization includes soil hydrology, soil temperature prediction, and TOPMODEL-based runoff parameterization with six soil layers. The soil parameters depend on soil texture from ISLSCP I. For biogeochemistry, soil is structured as upper (0-10cm) and lower (10-200cm).</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Soil temperature, Soil moisture, Soil ice content, litter and soil carbon, litter, humus, microbe, and inorganic nitrogen</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The soil texture map based on ISLSCP Initiative I is used. For biogeochemistry, field capacity and bulkdensity refer to IGBP soil data, and HWSD is used for soil texture.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ISLSCP Initiative I (FAO, GISS, U. Arizona, NASA/GSFC); Global Gridded Surfaces of Selected Soil Characteristics (IGBP-DIS)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>ISLSCP Initiative I (FAO, GISS, U. Arizona, NASA/GSFC); Wieder, W.R., J. Boehnert, G.B. Bonan, and M. Langseth. 2014. Regridded Harmonized World Soil Database v1.2. Data set. Available on-line [http://daac.ornl.gov] from Oak Ridge National Laboratory Distributed Active Archive Center, Oak Ridge, Tennessee, USA. http://dx.doi.org/10.3334/ORNLDAAC/1247</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Vertical Discretisation</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>VISIT-e</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The model for land ecosystem/biogeochemistry component introduced into MIROC-ES2L is the Vegetation Integrative SImulator for Trace gases model extended for ESM (VISIT-e). This model simulates carbon and nitrogen dynamics on land interactively, with exchanging variables between the land physics and atmosphere component. LUC impact on biogeochemistry is simulated in this component, based on schemes that are newly designed for CMIP6 exercises.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The model for land ecosystem/biogeochemistry component introduced into MIROC-ES2L is the Vegetation Integrative SImulator for Trace gases model extended for ESM (VISIT-e). This model simulates carbon and nitrogen dynamics on land interactively, with exchanging variables between the land physics and atmosphere component. LUC impact on biogeochemistry is simulated in this component, based on schemes that are newly designed for CMIP6 exercises.
+Minimal Advanced Treatments of Surface Interaction and Runoff (MATSIRO6) is a land model that consists of six soil layers, up to three snow layers, and a single canopy layer, and predicts the temperature and amount of water in the canopy, soil and snow. It is basically the same as the previous version of MATSIRO, but a physically-based parameterization of sub-grid snow distribution and a snow-derived wetland with consideration of sub-grid terrain complexity are incorporated.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Primary vegetation, secondary vegetation, urban, crop(normal crop and N-fixing crop), and pasture(pasture and rangeland).</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Three pools with different decay-time scale (1, 10, and 100years)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Leaf, stem, root, foliage/stem/root litters, active/intermediate/passive humus, three anthoropogenic pools</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Leaf, stem, root for upper canopy and forest floor vegetations (prognostic); other diagnostic carbon pools</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Treated as "big-leaf" model</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Based on Monsi-Saeki theory, and the photosynthetic capacity depends on leaf nitrogen concentration. Canopy photosynthesis is analytically integrated. </t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Depends on: specific respiration rate, the size of each c pool, and air temperature with modified Q10 function.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Construction cost is proportional to biomass growth.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>The allocation of photosynthate between carbon pools in vegetation (leaf, stem, root) is dynamically regulated following phenological stages.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>In growing season, carbon is allocated first to leaf until reaching optimal condition, and residue is allocated other components.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Dependent on growing degree days and cumulative coldness for temperature-regulated plant categories, and land water condition for rain-regulated plant categories.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Fixed mortality rate</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Leaf, stem, and root litters</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Temperature dependency based on Lloyd &amp; Taylor (1994) and soil moisture effect</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Active, intermediate, and passive humus</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>CO2</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Primary vegetation, secondary vegetation, urban, crop(normal crop and N-fixing crop), and pasture(pasture and rangeland). N fertilizer is applied to crop tile, and additional N fixing is included following areal fraction of N-fixing crop.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>foliage, stem and branch storage, litter, humus, microbe, NO3, NH4, and three anthoropogenic pools</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>VISIT-e and MATSIRO6</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Leaf area is simulated by the biogeochemical component. Stomatal Resistance from SiB2 based photosynthesis scheme is used to calculate transpiration. Canopy interception is considered.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Physics: potential vegetaion cover and cropland
+Biogeochemistry: primary vegetation, secondary vegetation, urban, crop, and pasture</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Biogeochem. Only</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Watanabe_2010 and MODIS Land Cover Type product (MCD12Q1)</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Controlled by LAI phenology</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>LAI and the phenology are controlled by the biogeochemical component.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Biomass is simulated by the biogeochemical component, but only used for biogeochemistry except for LAI dynamics.</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Static vegetation distribution</t>
+    <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>Canopy skin temperature, Canopy water content, leaf area index (based on foliage carbon, see "7. Carbon cycle"</t>
+    <phoneticPr fontId="15"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2634,6 +3025,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2725,15 +3123,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2775,7 +3181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2807,9 +3213,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2841,6 +3265,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3016,24 +3458,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="180.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="180.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="33">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="20">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3041,7 +3483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="20">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -3049,7 +3491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="20">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3057,7 +3499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="20">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -3065,7 +3507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="20">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -3073,52 +3515,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="20">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="20">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="20">
       <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="20">
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="20">
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="20">
       <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="20">
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="20">
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="20">
       <c r="B17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="18">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -3126,7 +3568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="18">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -3134,7 +3576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="18">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="18">
       <c r="A22" s="5" t="s">
         <v>26</v>
       </c>
@@ -3150,57 +3592,60 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="20">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="20">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="B20" r:id="rId2"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B20" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>685</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3211,18 +3656,20 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>690</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -3233,10 +3680,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>692</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3245,11 +3692,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
@@ -3260,10 +3709,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>695</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3272,11 +3721,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>117</v>
@@ -3287,18 +3738,20 @@
         <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>698</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>699</v>
-      </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>86400</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>193</v>
@@ -3309,10 +3762,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>701</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3321,11 +3774,14 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>927</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0900-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3334,35 +3790,35 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>703</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3373,10 +3829,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>707</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3384,7 +3840,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -3395,10 +3851,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>710</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3411,7 +3867,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
@@ -3422,10 +3878,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>713</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3438,7 +3894,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>117</v>
@@ -3449,10 +3905,10 @@
         <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>716</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3460,10 +3916,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>718</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3471,10 +3927,10 @@
         <v>113</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>719</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>720</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3482,10 +3938,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>722</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3493,10 +3949,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>724</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3504,10 +3960,10 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>726</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3515,10 +3971,10 @@
         <v>118</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>728</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3526,10 +3982,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>730</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3537,10 +3993,10 @@
         <v>65</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>732</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3551,10 +4007,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="AB37" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="AB37" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>73</v>
@@ -3562,10 +4018,10 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
+        <v>735</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>736</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -3573,10 +4029,10 @@
         <v>113</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>738</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3584,10 +4040,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>740</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3595,10 +4051,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>742</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3611,10 +4067,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>744</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3622,10 +4078,10 @@
         <v>65</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="C49" s="10" t="s">
         <v>746</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3636,13 +4092,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>68</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>73</v>
@@ -3650,10 +4106,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3661,19 +4117,19 @@
         <v>65</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="C54" s="10" t="s">
         <v>752</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11"/>
       <c r="AA55" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB55" s="6" t="s">
         <v>754</v>
-      </c>
-      <c r="AB55" s="6" t="s">
-        <v>755</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>73</v>
@@ -3681,10 +4137,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>756</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3692,10 +4148,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>758</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3708,7 +4164,7 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>193</v>
@@ -3719,10 +4175,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>761</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3735,23 +4191,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>763</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>766</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3759,19 +4215,19 @@
         <v>65</v>
       </c>
       <c r="B72" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>768</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11"/>
       <c r="AA73" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="AB73" s="6" t="s">
         <v>770</v>
-      </c>
-      <c r="AB73" s="6" t="s">
-        <v>771</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>73</v>
@@ -3779,10 +4235,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>772</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3790,10 +4246,10 @@
         <v>65</v>
       </c>
       <c r="B76" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>774</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3804,46 +4260,32 @@
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>68</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B32" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B41" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37 B73 B55" xr:uid="{00000000-0002-0000-0A00-000003000000}">
       <formula1>AA37:AC37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51 B78" xr:uid="{00000000-0002-0000-0A00-000005000000}">
       <formula1>AA51:AD51</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
-      <formula1>AA55:AC55</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>AA73:AC73</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
-      <formula1>AA78:AD78</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3851,35 +4293,35 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AD67"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>776</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3890,10 +4332,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>780</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3901,7 +4343,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -3912,10 +4354,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>783</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3928,10 +4370,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
+        <v>784</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>785</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3939,10 +4381,10 @@
         <v>113</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>787</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3950,7 +4392,7 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>117</v>
@@ -3961,10 +4403,10 @@
         <v>118</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>790</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -3972,10 +4414,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>792</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -3983,10 +4425,10 @@
         <v>65</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>794</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -3997,13 +4439,13 @@
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11"/>
       <c r="AA24" s="6" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>68</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>73</v>
@@ -4011,10 +4453,10 @@
     </row>
     <row r="26" spans="1:30" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>796</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
@@ -4022,10 +4464,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>797</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>798</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4033,7 +4475,7 @@
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>193</v>
@@ -4044,10 +4486,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>801</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4060,23 +4502,23 @@
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="A36" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>803</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>806</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -4084,10 +4526,10 @@
         <v>113</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>808</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4095,7 +4537,7 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>215</v>
@@ -4106,10 +4548,10 @@
         <v>65</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>811</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -4126,10 +4568,10 @@
     </row>
     <row r="47" spans="1:29" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>813</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
@@ -4137,10 +4579,10 @@
         <v>65</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>815</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4151,13 +4593,13 @@
     <row r="50" spans="1:30" ht="24" customHeight="1">
       <c r="B50" s="11"/>
       <c r="AA50" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="AB50" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="AB50" s="6" t="s">
+      <c r="AC50" s="6" t="s">
         <v>818</v>
-      </c>
-      <c r="AC50" s="6" t="s">
-        <v>819</v>
       </c>
       <c r="AD50" s="6" t="s">
         <v>73</v>
@@ -4165,10 +4607,10 @@
     </row>
     <row r="52" spans="1:30" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>820</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
@@ -4176,10 +4618,10 @@
         <v>113</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>821</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>822</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4187,10 +4629,10 @@
     </row>
     <row r="56" spans="1:30" ht="24" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>824</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
@@ -4198,10 +4640,10 @@
         <v>113</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>826</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4209,20 +4651,20 @@
     </row>
     <row r="61" spans="1:30" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>828</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>60</v>
@@ -4233,10 +4675,10 @@
         <v>46</v>
       </c>
       <c r="B65" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>832</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
@@ -4248,30 +4690,19 @@
       <c r="B67" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15 B58 B54 B41" xr:uid="{00000000-0002-0000-0B00-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0B00-000001000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B50" xr:uid="{00000000-0002-0000-0B00-000002000000}">
       <formula1>AA24:AD24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45" xr:uid="{00000000-0002-0000-0B00-000004000000}">
       <formula1>AA45:AC45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AD50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
-      <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4279,19 +4710,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
@@ -4302,7 +4735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="18">
       <c r="A5" s="9" t="s">
         <v>32</v>
       </c>
@@ -4326,67 +4759,234 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+    <row r="9" spans="1:2" ht="19">
+      <c r="A9" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19">
+      <c r="A10" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="19">
+      <c r="A11" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19">
+      <c r="A12" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19">
+      <c r="A13" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19">
+      <c r="A14" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19">
+      <c r="A15" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="24" spans="1:2" ht="19">
+      <c r="A24" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19">
+      <c r="A25" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19">
+      <c r="A26" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19">
+      <c r="A27" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19">
+      <c r="A28" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19">
+      <c r="A29" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19">
+      <c r="A30" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19">
+      <c r="A31" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19">
+      <c r="A32" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="19">
+      <c r="A33" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="19">
+      <c r="A34" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="19">
+      <c r="A35" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="19">
+      <c r="A36" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="19">
+      <c r="A37" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>703</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B16" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24:B37" xr:uid="{8E88C2BF-9A2C-F740-8246-E1E95BF0FD0A}">
       <formula1>"Top Level,Key Properties,Grid,Soil,Snow,Vegetation,Energy Balance,Carbon Cycle,Nitrogen Cycle,River Routing,Lakes"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A20" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -4422,7 +5022,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -4449,7 +5051,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -4476,7 +5080,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -4503,7 +5109,9 @@
       </c>
     </row>
     <row r="21" spans="1:32" ht="178" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
@@ -4530,7 +5138,9 @@
       </c>
     </row>
     <row r="26" spans="1:32" ht="24" customHeight="1">
-      <c r="B26" s="11"/>
+      <c r="B26" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="AA26" s="6" t="s">
         <v>68</v>
       </c>
@@ -4550,198 +5160,397 @@
         <v>73</v>
       </c>
     </row>
+    <row r="27" spans="1:32" ht="24" customHeight="1">
+      <c r="B27" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" ht="24" customHeight="1">
+      <c r="B29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" ht="24" customHeight="1">
+      <c r="B30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" ht="24" customHeight="1">
+      <c r="B31" s="11"/>
+      <c r="D31" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="24" customHeight="1">
-      <c r="A29" s="14" t="s">
+    <row r="34" spans="1:33" ht="24" customHeight="1">
+      <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
-    </row>
-    <row r="32" spans="1:32" ht="24" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:33" ht="24" customHeight="1">
-      <c r="A33" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:33" ht="24" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="35" spans="1:33" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
-      <c r="AA35" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE35" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG35" s="6" t="s">
-        <v>73</v>
+      <c r="B35" s="11" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:33" ht="24" customHeight="1">
       <c r="A38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1">
+      <c r="B39" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="24" customHeight="1">
+      <c r="B40" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC40" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF40" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG40" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" ht="24" customHeight="1">
+      <c r="B41" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG41" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" ht="24" customHeight="1">
+      <c r="B42" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE42" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG42" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" ht="24" customHeight="1">
+      <c r="B43" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG43" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" ht="24" customHeight="1">
+      <c r="B44" s="11"/>
+      <c r="D44" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="AA44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE44" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG44" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" ht="24" customHeight="1">
+      <c r="B45" s="11"/>
+      <c r="AA45" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF45" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG45" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="24" customHeight="1">
+      <c r="A48" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:33" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
-    </row>
-    <row r="41" spans="1:33" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="24" customHeight="1">
-      <c r="A42" s="14" t="s">
+    <row r="52" spans="1:3" ht="24" customHeight="1">
+      <c r="A52" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B52" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:33" ht="24" customHeight="1">
-      <c r="B43" s="8" t="s">
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="B53" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:33" ht="178" customHeight="1">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="47" spans="1:33" ht="24" customHeight="1">
-      <c r="A47" s="12" t="s">
+    <row r="54" spans="1:3" ht="178" customHeight="1">
+      <c r="B54" s="11" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="24" customHeight="1">
+      <c r="A57" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B57" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:33" ht="24" customHeight="1">
-      <c r="B48" s="13" t="s">
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="B58" s="13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="178" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="178" customHeight="1">
-      <c r="B58" s="11"/>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -4749,10 +5558,10 @@
         <v>46</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
@@ -4761,224 +5570,297 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="178" customHeight="1">
-      <c r="B63" s="11"/>
+      <c r="B63" s="11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
+      <c r="B68" s="11" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="B72" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="178" customHeight="1">
+      <c r="B73" s="11" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="A76" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B76" s="12" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="13" t="s">
+    <row r="77" spans="1:3" ht="24" customHeight="1">
+      <c r="B77" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B79" s="9" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B80" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
-    </row>
-    <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="24" customHeight="1">
+      <c r="A83" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B84" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
-    </row>
-    <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
+    <row r="85" spans="1:3" ht="24" customHeight="1">
+      <c r="B85" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B87" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B88" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
+    <row r="89" spans="1:3" ht="24" customHeight="1">
+      <c r="B89" s="11" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B92" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13" t="s">
+    <row r="93" spans="1:3" ht="24" customHeight="1">
+      <c r="B93" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B95" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
+    <row r="96" spans="1:3" ht="24" customHeight="1">
+      <c r="A96" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B96" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
-    </row>
-    <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="11"/>
+    </row>
+    <row r="99" spans="1:3" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
+    <row r="100" spans="1:3" ht="24" customHeight="1">
+      <c r="A100" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B100" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C100" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-    </row>
-    <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="B101" s="11" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B103" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B104" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C104" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="8" t="s">
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="B105" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="12" t="s">
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="11" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="24" customHeight="1">
+      <c r="A109" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B109" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="13" t="s">
+    <row r="110" spans="1:3" ht="24" customHeight="1">
+      <c r="B110" s="13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
+    <row r="112" spans="1:3" ht="24" customHeight="1">
+      <c r="A112" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B112" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="14" t="s">
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="A113" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B113" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C113" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="8" t="s">
+    <row r="114" spans="1:3" ht="24" customHeight="1">
+      <c r="B114" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1">
-      <c r="B105" s="11"/>
+    <row r="115" spans="1:3" ht="178" customHeight="1">
+      <c r="B115" s="11" t="s">
+        <v>870</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B31" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>AA26:AF26</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>AA35:AG35</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B85" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B45" xr:uid="{00000000-0002-0000-0200-000001000000}">
+      <formula1>AA40:AG40</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4986,17 +5868,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F3DE8D-2AE4-B94F-A7B8-E2BEE016351C}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -5059,7 +5943,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
@@ -5099,7 +5985,9 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
@@ -5121,7 +6009,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
@@ -5161,7 +6051,9 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="178" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
@@ -5183,33 +6075,39 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37" xr:uid="{BFB4DB48-1DDF-F54B-AC7E-B3A6CFA49B5F}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24" xr:uid="{CACF9D3D-44C0-2C47-B65F-8ABA973FACE2}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>0</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD181"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8531281-7AA1-C845-A958-ACB5F4D49683}">
+  <dimension ref="A1:AG184"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -5272,7 +6170,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -5294,7 +6194,9 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
@@ -5316,7 +6218,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
@@ -5343,7 +6247,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
@@ -5383,7 +6289,9 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="178" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
@@ -5405,7 +6313,9 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
@@ -5427,7 +6337,9 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="11" t="s">
+        <v>904</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
@@ -5449,7 +6361,9 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
@@ -5471,7 +6385,9 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
@@ -5493,7 +6409,9 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
-      <c r="B53" s="11"/>
+      <c r="B53" s="11" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
@@ -5515,7 +6433,9 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="11"/>
+      <c r="B57" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
@@ -5537,7 +6457,9 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="B61" s="11"/>
+      <c r="B61" s="11" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
@@ -5572,7 +6494,9 @@
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
-      <c r="B69" s="11"/>
+      <c r="B69" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
@@ -5599,7 +6523,9 @@
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
-      <c r="B74" s="11"/>
+      <c r="B74" s="11" t="s">
+        <v>243</v>
+      </c>
       <c r="AA74" s="6" t="s">
         <v>241</v>
       </c>
@@ -5633,7 +6559,9 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>248</v>
+      </c>
       <c r="AA78" s="6" t="s">
         <v>248</v>
       </c>
@@ -5664,7 +6592,9 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="B82" s="11"/>
+      <c r="B82" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
@@ -5704,7 +6634,9 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="178" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="11" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
@@ -5726,7 +6658,9 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="11"/>
+      <c r="B95" s="11">
+        <v>180</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
@@ -5753,14 +6687,16 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="178" customHeight="1">
-      <c r="B100" s="11"/>
+      <c r="B100" s="11" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
         <v>266</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>267</v>
+        <v>905</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5780,7 +6716,9 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="178" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="B105" s="11" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
@@ -5802,7 +6740,9 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
-      <c r="B109" s="11"/>
+      <c r="B109" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
@@ -5829,7 +6769,12 @@
       </c>
     </row>
     <row r="114" spans="1:31" ht="24" customHeight="1">
-      <c r="B114" s="11"/>
+      <c r="B114" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>880</v>
+      </c>
       <c r="AA114" s="6" t="s">
         <v>278</v>
       </c>
@@ -5860,7 +6805,9 @@
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
-      <c r="B118" s="11"/>
+      <c r="B118" s="11" t="s">
+        <v>287</v>
+      </c>
       <c r="AA118" s="6" t="s">
         <v>284</v>
       </c>
@@ -5910,7 +6857,9 @@
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
-      <c r="B126" s="11"/>
+      <c r="B126" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
@@ -5932,7 +6881,9 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
+      <c r="B130" s="11" t="s">
+        <v>881</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
@@ -5959,7 +6910,9 @@
       </c>
     </row>
     <row r="135" spans="1:3" ht="178" customHeight="1">
-      <c r="B135" s="11"/>
+      <c r="B135" s="11" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
@@ -5999,7 +6952,9 @@
       </c>
     </row>
     <row r="144" spans="1:3" ht="178" customHeight="1">
-      <c r="B144" s="11"/>
+      <c r="B144" s="11" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
@@ -6026,7 +6981,9 @@
       </c>
     </row>
     <row r="149" spans="1:33" ht="24" customHeight="1">
-      <c r="B149" s="11"/>
+      <c r="B149" s="11" t="s">
+        <v>314</v>
+      </c>
       <c r="AA149" s="6" t="s">
         <v>313</v>
       </c>
@@ -6049,253 +7006,306 @@
         <v>73</v>
       </c>
     </row>
-    <row r="152" spans="1:33" ht="24" customHeight="1">
-      <c r="A152" s="12" t="s">
+    <row r="150" spans="1:33" ht="24" customHeight="1">
+      <c r="B150" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA150" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB150" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC150" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD150" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE150" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF150" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG150" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" ht="24" customHeight="1">
+      <c r="B151" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA151" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB151" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC151" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD151" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AE151" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF151" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG151" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" ht="24" customHeight="1">
+      <c r="A154" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B154" s="12" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="153" spans="1:33" ht="24" customHeight="1">
-      <c r="B153" s="13" t="s">
+    <row r="155" spans="1:33" ht="24" customHeight="1">
+      <c r="B155" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="155" spans="1:33" ht="24" customHeight="1">
-      <c r="A155" s="9" t="s">
+    <row r="157" spans="1:33" ht="24" customHeight="1">
+      <c r="A157" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B157" s="9" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:33" ht="24" customHeight="1">
-      <c r="A156" s="14" t="s">
+    <row r="158" spans="1:33" ht="24" customHeight="1">
+      <c r="A158" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B158" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C158" s="10" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="157" spans="1:33" ht="24" customHeight="1">
-      <c r="B157" s="8" t="s">
+    <row r="159" spans="1:33" ht="24" customHeight="1">
+      <c r="B159" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="158" spans="1:33" ht="178" customHeight="1">
-      <c r="B158" s="11"/>
-    </row>
-    <row r="160" spans="1:33" ht="24" customHeight="1">
-      <c r="A160" s="9" t="s">
+    <row r="160" spans="1:33" ht="178" customHeight="1">
+      <c r="B160" s="11" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="24" customHeight="1">
+      <c r="A162" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B162" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="24" customHeight="1">
-      <c r="A161" s="14" t="s">
+    <row r="163" spans="1:3" ht="24" customHeight="1">
+      <c r="A163" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B163" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C163" s="10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="24" customHeight="1">
-      <c r="B162" s="11"/>
-    </row>
-    <row r="164" spans="1:29" ht="24" customHeight="1">
-      <c r="A164" s="9" t="s">
+    <row r="164" spans="1:3" ht="24" customHeight="1">
+      <c r="B164" s="11">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="24" customHeight="1">
+      <c r="A166" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B166" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="24" customHeight="1">
-      <c r="A165" s="14" t="s">
+    <row r="167" spans="1:3" ht="24" customHeight="1">
+      <c r="A167" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B165" s="10" t="s">
+      <c r="B167" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C167" s="10" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="24" customHeight="1">
-      <c r="B166" s="8" t="s">
+    <row r="168" spans="1:3" ht="24" customHeight="1">
+      <c r="B168" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="178" customHeight="1">
-      <c r="B167" s="11"/>
-    </row>
-    <row r="169" spans="1:29" ht="24" customHeight="1">
-      <c r="A169" s="9" t="s">
+    <row r="169" spans="1:3" ht="178" customHeight="1">
+      <c r="B169" s="11" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="24" customHeight="1">
+      <c r="A171" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B171" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="24" customHeight="1">
-      <c r="A170" s="14" t="s">
+    <row r="172" spans="1:3" ht="24" customHeight="1">
+      <c r="A172" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B172" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C172" s="10" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="24" customHeight="1">
-      <c r="B171" s="8" t="s">
+    <row r="173" spans="1:3" ht="24" customHeight="1">
+      <c r="B173" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="178" customHeight="1">
-      <c r="B172" s="11"/>
-    </row>
-    <row r="174" spans="1:29" ht="24" customHeight="1">
-      <c r="A174" s="9" t="s">
+    <row r="174" spans="1:3" ht="178" customHeight="1">
+      <c r="B174" s="11" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="24" customHeight="1">
+      <c r="A176" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B176" s="9" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="24" customHeight="1">
-      <c r="A175" s="14" t="s">
+    <row r="177" spans="1:29" ht="24" customHeight="1">
+      <c r="A177" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B177" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C177" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="176" spans="1:29" ht="24" customHeight="1">
-      <c r="B176" s="11"/>
-      <c r="AA176" s="6" t="s">
+    <row r="178" spans="1:29" ht="24" customHeight="1">
+      <c r="B178" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA178" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="AB176" s="6" t="s">
+      <c r="AB178" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="AC176" s="6" t="s">
+      <c r="AC178" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="24" customHeight="1">
-      <c r="A178" s="9" t="s">
+    <row r="180" spans="1:29" ht="24" customHeight="1">
+      <c r="A180" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B180" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="24" customHeight="1">
-      <c r="A179" s="14" t="s">
+    <row r="181" spans="1:29" ht="24" customHeight="1">
+      <c r="A181" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B181" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C181" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="24" customHeight="1">
-      <c r="B180" s="10" t="s">
+    <row r="182" spans="1:29" ht="24" customHeight="1">
+      <c r="B182" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11"/>
-      <c r="AA181" s="6" t="s">
+    <row r="183" spans="1:29" ht="24" customHeight="1">
+      <c r="B183" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="AB181" s="6" t="s">
+      <c r="AA183" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB183" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="AC181" s="6" t="s">
+      <c r="AC183" s="6" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="184" spans="1:29" ht="24" customHeight="1">
+      <c r="B184" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA184" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB184" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC184" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="15">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149:B151" xr:uid="{D9E71F7C-F53F-9E4D-94C5-DD65D86FA7C0}">
+      <formula1>AA149:AG149</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118" xr:uid="{3F672CFE-6342-5A4B-B78B-8B2CB19D62B8}">
+      <formula1>AA118:AE118</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78 B183:B184 B178 B114" xr:uid="{B2F54479-33AD-3749-AF0D-7B4F04AA383D}">
+      <formula1>AA78:AC78</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74" xr:uid="{DA91DAB9-CA4E-C243-95C6-9E872DABBE43}">
+      <formula1>AA74:AD74</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57 B69" xr:uid="{D108D280-1CAE-F246-B2D1-F2C6958B5DB5}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B164 B126 B109 B95 B82" xr:uid="{8DE4D1F4-EB8F-B849-B832-60E896C67900}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B69">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
-      <formula1>AA74:AD74</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
-      <formula1>AA78:AC78</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B82">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B114">
-      <formula1>AA114:AC114</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B118">
-      <formula1>AA118:AE118</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B126">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B149">
-      <formula1>AA149:AG149</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B162">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B176">
-      <formula1>AA176:AC176</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B181">
-      <formula1>AA181:AC181</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D68B37-C4FF-7D49-8CF4-DCDF2174D813}">
+  <dimension ref="A1:AF72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -6358,7 +7368,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>886</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -6385,7 +7397,9 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
@@ -6407,7 +7421,9 @@
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
@@ -6429,7 +7445,9 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>363</v>
+      </c>
       <c r="AA24" s="6" t="s">
         <v>234</v>
       </c>
@@ -6460,7 +7478,9 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>234</v>
+      </c>
       <c r="AA28" s="6" t="s">
         <v>234</v>
       </c>
@@ -6491,7 +7511,9 @@
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>368</v>
+      </c>
       <c r="AA32" s="6" t="s">
         <v>234</v>
       </c>
@@ -6522,7 +7544,9 @@
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>234</v>
+      </c>
       <c r="AA36" s="6" t="s">
         <v>234</v>
       </c>
@@ -6553,7 +7577,12 @@
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>874</v>
+      </c>
       <c r="AA40" s="6" t="s">
         <v>234</v>
       </c>
@@ -6589,7 +7618,9 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>385</v>
+      </c>
       <c r="AA45" s="6" t="s">
         <v>385</v>
       </c>
@@ -6600,216 +7631,290 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
+    <row r="46" spans="1:29" ht="24" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B48" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:31" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="24" customHeight="1">
-      <c r="B49" s="10" t="s">
+    <row r="50" spans="1:31" ht="24" customHeight="1">
+      <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
+    <row r="51" spans="1:31" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="AB50" s="6" t="s">
+      <c r="AA51" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB51" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="AC50" s="6" t="s">
+      <c r="AC51" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="AD50" s="6" t="s">
+      <c r="AD51" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="AE50" s="6" t="s">
+      <c r="AE51" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="B52" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="24" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
+    <row r="56" spans="1:31" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B56" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
+    <row r="57" spans="1:31" ht="24" customHeight="1">
+      <c r="B57" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
-    </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
-      <c r="A58" s="12" t="s">
+      <c r="B58" s="11" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="24" customHeight="1">
+      <c r="A61" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B61" s="12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="B59" s="13" t="s">
+    <row r="62" spans="1:31" ht="24" customHeight="1">
+      <c r="B62" s="13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
+    <row r="65" spans="1:32" ht="24" customHeight="1">
+      <c r="A65" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B65" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="B66" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="AB63" s="6" t="s">
+      <c r="AA66" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB66" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="AC63" s="6" t="s">
+      <c r="AC66" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="AD63" s="6" t="s">
+      <c r="AD66" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
+    <row r="68" spans="1:32" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B68" s="9" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
+    <row r="69" spans="1:32" ht="24" customHeight="1">
+      <c r="A69" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B69" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="24" customHeight="1">
-      <c r="B67" s="10" t="s">
+    <row r="70" spans="1:32" ht="24" customHeight="1">
+      <c r="B70" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
-      <c r="AA68" s="6" t="s">
+    <row r="71" spans="1:32" ht="24" customHeight="1">
+      <c r="B71" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="AA71" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="AB68" s="6" t="s">
+      <c r="AB71" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="AC68" s="6" t="s">
+      <c r="AC71" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="AD68" s="6" t="s">
+      <c r="AD71" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="AE68" s="6" t="s">
+      <c r="AE71" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="AF68" s="6" t="s">
+      <c r="AF71" s="6" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="72" spans="1:32" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF72" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="10">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71:B72" xr:uid="{43B440DA-8F86-3148-9E16-DD0E5042A25A}">
+      <formula1>AA71:AF71</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66" xr:uid="{5129D8C6-8E38-5246-BE2A-84A5939D874D}">
+      <formula1>AA66:AD66</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51:B53" xr:uid="{861AD940-75DF-B443-B0F0-2B865A2357A2}">
+      <formula1>AA51:AE51</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24 B45:B46 B40 B36 B32 B28" xr:uid="{E322E89E-52EC-B047-B237-9118C6AAE087}">
+      <formula1>AA24:AC24</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{D0CBDF0D-EE93-0440-82FA-AF988A8EA50E}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>AA24:AC24</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
-      <formula1>AA32:AC32</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>AA36:AC36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>AA40:AC40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>AA45:AC45</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AE50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AF68</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D24B0A63-7D2B-F24F-8CDB-F6C73522A4D8}">
+  <dimension ref="A1:AM119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A104" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -6845,7 +7950,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
@@ -6872,7 +7979,9 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>929</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -6916,7 +8025,9 @@
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
-      <c r="B19" s="11"/>
+      <c r="B19" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
@@ -6943,7 +8054,9 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="178" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
@@ -6965,7 +8078,9 @@
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>73</v>
+      </c>
       <c r="AA28" s="6" t="s">
         <v>435</v>
       </c>
@@ -7001,7 +8116,9 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>443</v>
+      </c>
       <c r="AA33" s="6" t="s">
         <v>441</v>
       </c>
@@ -7021,78 +8138,107 @@
         <v>73</v>
       </c>
     </row>
+    <row r="34" spans="1:39" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>446</v>
+      <c r="B35" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>448</v>
+      <c r="B36" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="AA36" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB36" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
-      <c r="B37" s="10" t="s">
-        <v>31</v>
+      <c r="B37" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF37" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
       <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC38" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AD38" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE38" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF38" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AG38" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="AH38" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="AI38" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="AJ38" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="AK38" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL38" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AM38" s="6" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
     <row r="41" spans="1:39" ht="24" customHeight="1">
@@ -7100,478 +8246,1082 @@
         <v>65</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" ht="24" customHeight="1">
+      <c r="B42" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="24" customHeight="1">
+      <c r="B43" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="AA43" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC43" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD43" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE43" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF43" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG43" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH43" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI43" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ43" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK43" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL43" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM43" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" ht="24" customHeight="1">
+      <c r="B44" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="AA44" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE44" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF44" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG44" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH44" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI44" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ44" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK44" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL44" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM44" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" ht="24" customHeight="1">
+      <c r="B45" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA45" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB45" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC45" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD45" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE45" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF45" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG45" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH45" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI45" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ45" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK45" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL45" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM45" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" ht="24" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD46" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE46" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF46" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG46" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH46" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI46" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ46" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK46" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL46" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM46" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="24" customHeight="1">
+      <c r="B47" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA47" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB47" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC47" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD47" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE47" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF47" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG47" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH47" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI47" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ47" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK47" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL47" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM47" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" ht="24" customHeight="1">
+      <c r="B48" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA48" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC48" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD48" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE48" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF48" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG48" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH48" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI48" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ48" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK48" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL48" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM48" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" ht="24" customHeight="1">
+      <c r="B49" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB49" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC49" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD49" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE49" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF49" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG49" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH49" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI49" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ49" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK49" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL49" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM49" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" ht="24" customHeight="1">
+      <c r="B50" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>891</v>
+      </c>
+      <c r="AA50" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB50" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC50" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD50" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE50" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF50" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG50" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH50" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI50" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ50" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK50" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL50" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM50" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF51" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG51" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH51" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI51" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ51" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK51" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL51" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM51" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" ht="24" customHeight="1">
+      <c r="B52" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF52" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG52" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH52" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI52" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ52" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK52" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL52" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM52" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" ht="24" customHeight="1">
+      <c r="B53" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="AA53" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AB53" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="AF53" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AG53" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH53" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="AI53" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="AJ53" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK53" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL53" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AM53" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C56" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C41" s="10" t="s">
+    </row>
+    <row r="57" spans="1:39" ht="24" customHeight="1">
+      <c r="B57" s="11" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="42" spans="1:39" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
+      <c r="AA57" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB57" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="AB42" s="6" t="s">
+      <c r="AC57" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="AC42" s="6" t="s">
+      <c r="AD57" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" ht="24" customHeight="1">
+      <c r="A59" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="B59" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" ht="24" customHeight="1">
+      <c r="A60" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" ht="24" customHeight="1">
+      <c r="B61" s="11" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" ht="24" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" ht="24" customHeight="1">
+      <c r="A64" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="24" customHeight="1">
+      <c r="B65" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="24" customHeight="1">
+      <c r="A68" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" ht="24" customHeight="1">
+      <c r="B69" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="44" spans="1:39" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
+      <c r="D69" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="AA69" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB69" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC69" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1">
+      <c r="A72" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="46" spans="1:39" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
-    </row>
-    <row r="48" spans="1:39" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
+      <c r="B72" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" ht="24" customHeight="1">
+      <c r="B73" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" ht="178" customHeight="1">
+      <c r="B74" s="11" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1">
+      <c r="A77" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
+      <c r="B77" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1">
+      <c r="B78" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="AB54" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="AC54" s="6" t="s">
+      <c r="AA78" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB78" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC78" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD78" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
+    <row r="80" spans="1:30" ht="24" customHeight="1">
+      <c r="A80" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" ht="24" customHeight="1">
+      <c r="A81" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
+      <c r="B81" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" ht="24" customHeight="1">
+      <c r="B82" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="178" customHeight="1">
-      <c r="B59" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
+    <row r="83" spans="1:29" ht="178" customHeight="1">
+      <c r="B83" s="11" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="AB63" s="6" t="s">
+      <c r="B86" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" ht="24" customHeight="1">
+      <c r="B87" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="AC63" s="6" t="s">
+      <c r="AA87" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB87" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="AD63" s="6" t="s">
+      <c r="AC87" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
+    <row r="89" spans="1:29" ht="24" customHeight="1">
+      <c r="A89" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:29" ht="24" customHeight="1">
+      <c r="A90" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" ht="24" customHeight="1">
-      <c r="B67" s="8" t="s">
+      <c r="B90" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" ht="24" customHeight="1">
+      <c r="B91" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="178" customHeight="1">
-      <c r="B68" s="11"/>
-    </row>
-    <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" ht="24" customHeight="1">
-      <c r="A71" s="14" t="s">
+    <row r="92" spans="1:29" ht="178" customHeight="1">
+      <c r="B92" s="11" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" ht="24" customHeight="1">
+      <c r="A94" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" ht="24" customHeight="1">
+      <c r="A95" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B71" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
-      <c r="AA72" s="6" t="s">
+      <c r="B95" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" ht="24" customHeight="1">
+      <c r="B96" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="AA96" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="AB72" s="6" t="s">
+      <c r="AB96" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="AC72" s="6" t="s">
+      <c r="AC96" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="24" customHeight="1">
-      <c r="B76" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" ht="178" customHeight="1">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="79" spans="1:29" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="C80" s="10" t="s">
+    <row r="98" spans="1:32" ht="24" customHeight="1">
+      <c r="A98" s="9" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="81" spans="1:32" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
-      <c r="AA81" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB81" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC81" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="83" spans="1:32" ht="24" customHeight="1">
-      <c r="A83" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" ht="24" customHeight="1">
-      <c r="B85" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" ht="178" customHeight="1">
-      <c r="B86" s="11"/>
-    </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="90" spans="1:32" ht="24" customHeight="1">
-      <c r="B90" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:32" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-      <c r="AA91" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="AB91" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC91" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="AD91" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE91" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="AF91" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:32" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="94" spans="1:32" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1">
-      <c r="B95" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" ht="178" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
+    </row>
+    <row r="99" spans="1:32" ht="24" customHeight="1">
       <c r="A99" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B99" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32" ht="24" customHeight="1">
+      <c r="B100" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" ht="178" customHeight="1">
+      <c r="B101" s="11" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32" ht="24" customHeight="1">
+      <c r="A104" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32" ht="24" customHeight="1">
+      <c r="B105" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32" ht="24" customHeight="1">
+      <c r="B106" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="AA106" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB106" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC106" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="AD106" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE106" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF106" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32" ht="24" customHeight="1">
+      <c r="B107" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA107" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB107" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC107" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="AD107" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE107" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF107" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32" ht="24" customHeight="1">
+      <c r="B108" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA108" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB108" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC108" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="AD108" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE108" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF108" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" ht="24" customHeight="1">
+      <c r="B109" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="AA109" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="AB109" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC109" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="AD109" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE109" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="AF109" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" ht="24" customHeight="1">
+      <c r="A111" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32" ht="24" customHeight="1">
+      <c r="A112" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="24" customHeight="1">
+      <c r="B113" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="178" customHeight="1">
+      <c r="B114" s="11" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="24" customHeight="1">
+      <c r="A117" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="8" t="s">
+    </row>
+    <row r="118" spans="1:3" ht="24" customHeight="1">
+      <c r="B118" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
+    <row r="119" spans="1:3" ht="24" customHeight="1">
+      <c r="B119" s="11" t="s">
+        <v>937</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B57 B78" xr:uid="{D99EE997-E5EA-B94C-9FA5-35E649C20B65}">
+      <formula1>AA57:AD57</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43:B53" xr:uid="{2A604637-D1CB-EB49-8098-45B0F84987BF}">
+      <formula1>AA43:AM43</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B106:B109 B33:B38" xr:uid="{34D18F05-D49E-184F-93A2-68CAD3832602}">
+      <formula1>AA33:AF33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28 B96 B87 B69" xr:uid="{0C164AB5-A64A-BC40-8943-E4D1473F2ADF}">
+      <formula1>AA28:AC28</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19 B65" xr:uid="{505DA536-FDF2-7A4D-A818-D0E13C4D209D}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15" xr:uid="{732D1EA9-C31B-AC41-8DC1-C4AAEB6BC4A8}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>AA28:AC28</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
-      <formula1>AA33:AF33</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AM38</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AD42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AC54</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AC72</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
-      <formula1>AA81:AC81</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AF91</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7405E8-58CB-074C-995C-E3D9D815743F}">
+  <dimension ref="A1:AE31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>524</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7582,10 +9332,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>528</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7593,7 +9343,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -7604,10 +9354,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7616,11 +9366,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>893</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
@@ -7631,10 +9383,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>534</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7643,14 +9395,16 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -7658,21 +9412,26 @@
         <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>539</v>
-      </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>540</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -7680,10 +9439,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>542</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -7692,18 +9451,23 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>896</v>
+      </c>
       <c r="AA25" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB25" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AC25" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="AC25" s="6" t="s">
+      <c r="AD25" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>547</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>73</v>
@@ -7711,7 +9475,7 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>338</v>
@@ -7722,10 +9486,10 @@
         <v>65</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>549</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -7734,60 +9498,80 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>550</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="31" spans="1:31" ht="24" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30:B31" xr:uid="{1D8945AE-7C85-1941-8CA1-97228E5B6A2A}">
+      <formula1>AA30:AB30</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{A7D7C596-09A9-6D46-AF3C-85210A210A55}">
+      <formula1>AA25:AE25</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{9157720A-341A-A540-ACC9-F7D0F4E49581}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
-      <formula1>AA25:AE25</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>AA30:AB30</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="40" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD172"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AE172"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A11" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="150.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="150.6640625" customWidth="1"/>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7798,18 +9582,20 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>557</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>55</v>
@@ -7820,10 +9606,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>559</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7832,11 +9618,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
-      <c r="B11" s="11"/>
+      <c r="B11" s="11" t="s">
+        <v>907</v>
+      </c>
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>93</v>
@@ -7847,10 +9635,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>562</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7859,11 +9647,13 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>117</v>
@@ -7874,21 +9664,23 @@
         <v>118</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>566</v>
-      </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>86400</v>
+      </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -7896,10 +9688,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>569</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -7908,15 +9700,20 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>910</v>
+      </c>
       <c r="AA25" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB25" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="AB25" s="6" t="s">
+      <c r="AC25" s="6" t="s">
         <v>572</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>573</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>73</v>
@@ -7924,7 +9721,7 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>193</v>
@@ -7935,10 +9732,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>575</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -7947,27 +9744,29 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>577</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>580</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -7975,21 +9774,23 @@
         <v>118</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
+      <c r="B38" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -7997,10 +9798,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8009,14 +9810,16 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>912</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>588</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8024,10 +9827,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8036,24 +9839,26 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="178" customHeight="1">
-      <c r="B48" s="11"/>
+      <c r="B48" s="11" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>592</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>281</v>
@@ -8064,10 +9869,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C55" s="10" t="s">
         <v>596</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8076,27 +9881,29 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="178" customHeight="1">
-      <c r="B57" s="11"/>
+      <c r="B57" s="11" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>598</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8104,10 +9911,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>603</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8116,14 +9923,16 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="178" customHeight="1">
-      <c r="B66" s="11"/>
+      <c r="B66" s="11" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>605</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8131,10 +9940,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C69" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8143,24 +9952,26 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="178" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>609</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>281</v>
@@ -8171,10 +9982,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C78" s="10" t="s">
         <v>613</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8183,14 +9994,16 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
-      <c r="B80" s="11"/>
+      <c r="B80" s="11" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>615</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8198,25 +10011,25 @@
         <v>65</v>
       </c>
       <c r="B83" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>617</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11"/>
       <c r="AA84" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB84" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="AB84" s="6" t="s">
+      <c r="AC84" s="6" t="s">
         <v>620</v>
       </c>
-      <c r="AC84" s="6" t="s">
+      <c r="AD84" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="AD84" s="6" t="s">
-        <v>622</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>73</v>
@@ -8224,10 +10037,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>623</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8235,25 +10048,30 @@
         <v>65</v>
       </c>
       <c r="B87" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="C87" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="C87" s="10" t="s">
+    </row>
+    <row r="88" spans="1:31" ht="24" customHeight="1">
+      <c r="B88" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="AA88" s="6" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="88" spans="1:31" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
-      <c r="AA88" s="6" t="s">
+      <c r="AB88" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="AB88" s="6" t="s">
+      <c r="AC88" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="AC88" s="6" t="s">
+      <c r="AD88" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="AD88" s="6" t="s">
-        <v>630</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>73</v>
@@ -8261,20 +10079,20 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>281</v>
@@ -8285,31 +10103,33 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="C95" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
+    </row>
+    <row r="96" spans="1:31" ht="88" customHeight="1">
+      <c r="B96" s="11" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>637</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>281</v>
@@ -8320,34 +10140,36 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>642</v>
-      </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="11"/>
+      <c r="B104" s="11" t="s">
+        <v>920</v>
+      </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -8355,21 +10177,23 @@
         <v>118</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
-      <c r="B112" s="11"/>
+      <c r="B112" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8377,10 +10201,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8389,14 +10213,16 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
-      <c r="B117" s="11"/>
+      <c r="B117" s="11" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>650</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8404,10 +10230,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>652</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8416,11 +10242,13 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
-      <c r="B122" s="11"/>
+      <c r="B122" s="11" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>281</v>
@@ -8431,10 +10259,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
+        <v>654</v>
+      </c>
+      <c r="C125" s="10" t="s">
         <v>655</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8447,23 +10275,23 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="B130" s="12" t="s">
         <v>657</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -8471,21 +10299,23 @@
         <v>118</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
-      <c r="B135" s="11"/>
+      <c r="B135" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8493,10 +10323,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8505,14 +10335,16 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
+      <c r="B140" s="11" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8520,10 +10352,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8532,11 +10364,13 @@
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
-      <c r="B145" s="11"/>
+      <c r="B145" s="11" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>281</v>
@@ -8547,10 +10381,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -8563,23 +10397,23 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>668</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>671</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -8587,21 +10421,23 @@
         <v>113</v>
       </c>
       <c r="B157" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="C157" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>674</v>
-      </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
-      <c r="B158" s="11"/>
+      <c r="B158" s="11" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>675</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -8609,10 +10445,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>677</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -8621,14 +10457,16 @@
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
-      <c r="B163" s="11"/>
+      <c r="B163" s="11" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -8636,10 +10474,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -8648,14 +10486,16 @@
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
-      <c r="B168" s="11"/>
+      <c r="B168" s="11" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>681</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -8663,39 +10503,30 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="C171" s="10" t="s">
         <v>683</v>
       </c>
-      <c r="C171" s="10" t="s">
-        <v>684</v>
-      </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
-      <c r="B172" s="11"/>
+      <c r="B172" s="11" t="s">
+        <v>925</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
+  <phoneticPr fontId="15"/>
+  <dataValidations count="4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20 B135 B112 B38" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>AA25:AD25</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B84 B88" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>AA84:AE84</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
-      <formula1>AA88:AE88</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B135">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B158" xr:uid="{00000000-0002-0000-0800-000007000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
